--- a/apteci.xlsx
+++ b/apteci.xlsx
@@ -19,15 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
-  <si>
-    <t>fdbdf</t>
-  </si>
-  <si>
-    <t>dfb</t>
-  </si>
-  <si>
-    <t>dfbdfb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>Солнечное здоровье</t>
+  </si>
+  <si>
+    <t>Ильиногорск д.5</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Дзержинск</t>
+  </si>
+  <si>
+    <t>Ильино</t>
+  </si>
+  <si>
+    <t>Аптеки</t>
+  </si>
+  <si>
+    <t>8 00-18 00</t>
+  </si>
+  <si>
+    <t>9 00-17 00</t>
+  </si>
+  <si>
+    <t>8 00-17 00</t>
+  </si>
+  <si>
+    <t>10 00-19 00</t>
+  </si>
+  <si>
+    <t>9 00-19 00</t>
+  </si>
+  <si>
+    <t>8 00-19 00</t>
+  </si>
+  <si>
+    <t>Открыто</t>
+  </si>
+  <si>
+    <t>Закрыто</t>
   </si>
 </sst>
 </file>
@@ -348,10 +381,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -361,16 +400,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>89739265872</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -378,19 +417,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>89100947221</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -398,19 +437,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>89300277750</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -418,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>89220038855</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -438,19 +477,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>89115643221</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,19 +497,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>8900742291</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
